--- a/data/trans_orig/Q64D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.237477009929613</v>
+        <v>9.005878993561369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.453630343195932</v>
+        <v>7.540277857427115</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.623876337517553</v>
+        <v>8.940986855598274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12.16682827540833</v>
+        <v>12.06465105963592</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.592920519650498</v>
+        <v>7.647841435170132</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.699725952236875</v>
+        <v>9.809969344257603</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.30712629068834</v>
+        <v>10.30854208720195</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>14.79621263141424</v>
+        <v>14.81814349707973</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.447295955228443</v>
+        <v>9.553035042234601</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9.219935240931967</v>
+        <v>9.375514001507097</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10.44696798099749</v>
+        <v>10.18763329839039</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>14.22870907273467</v>
+        <v>14.19012453991803</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.44429910918852</v>
+        <v>16.20125359930157</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.14619019593359</v>
+        <v>13.43224527447599</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.15282810247518</v>
+        <v>15.24267926057117</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.52463661073547</v>
+        <v>19.73842181108435</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.30763451697674</v>
+        <v>13.99241106610188</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.59979856111674</v>
+        <v>18.92139669197109</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>19.7252319742637</v>
+        <v>20.288411160074</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>22.77120069647174</v>
+        <v>22.55170210742919</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.29538515999539</v>
+        <v>14.14443130279969</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14.47766667465235</v>
+        <v>14.16500392535232</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.29823219620449</v>
+        <v>16.20544314399563</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>19.71048353462438</v>
+        <v>19.59356254572728</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.191142747814087</v>
+        <v>7.048167327631638</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.506679834853641</v>
+        <v>5.52514324244852</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.27705816427838</v>
+        <v>9.995201955398279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.18038628172603</v>
+        <v>16.09310405426224</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.538334017207129</v>
+        <v>5.643259341229252</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.086353831343994</v>
+        <v>4.963028924093052</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.26835175484972</v>
+        <v>10.02085693393227</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>14.25845561121993</v>
+        <v>13.90180230796355</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.130538060974195</v>
+        <v>6.916819054626369</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.775581013823438</v>
+        <v>5.85922585683081</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10.98736908076943</v>
+        <v>10.70792061061744</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.02891862233332</v>
+        <v>16.24848763645742</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.6391019074978</v>
+        <v>13.39865454458602</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.43760399653364</v>
+        <v>11.04659918656893</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.81988979839792</v>
+        <v>22.55105905651764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25.7965381020206</v>
+        <v>26.05657276701828</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>10.48405144868212</v>
+        <v>10.96775309481104</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02161194710314</v>
+        <v>10.630149931666</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.12560677119757</v>
+        <v>16.77311821015672</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>21.56870734656438</v>
+        <v>21.76049699999288</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>11.34859530530358</v>
+        <v>11.12486720055231</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9.654319882811143</v>
+        <v>9.693910828784917</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18.17989103940461</v>
+        <v>17.74836783496602</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>22.37126493785963</v>
+        <v>22.24735084723096</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>6.418917844783469</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.261606877549312</v>
+        <v>7.261606877549313</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>10.80687626524869</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.650798583785145</v>
+        <v>9.016291172216299</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.141009826082549</v>
+        <v>6.24527842532891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.360749581846155</v>
+        <v>5.464210407129532</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.91162312231001</v>
+        <v>12.67486870741237</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.043269423674271</v>
+        <v>3.22092462171483</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.325819240828622</v>
+        <v>4.303083789681762</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.533656411272885</v>
+        <v>3.231760554058149</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.34307543248621</v>
+        <v>4.741445092653668</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.35059683638503</v>
+        <v>8.384787138333911</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.144610100542809</v>
+        <v>6.070279714649799</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5.426369944695523</v>
+        <v>5.251258670938325</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>11.16636936505325</v>
+        <v>11.43883786329396</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.21771888339287</v>
+        <v>15.49720730688221</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.84860886163878</v>
+        <v>11.94061221984388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.02521378892643</v>
+        <v>10.70127898581343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.7055619907269</v>
+        <v>21.4385374077422</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.1097548953757</v>
+        <v>11.25989743719608</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.625728376629944</v>
+        <v>9.551254088576869</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.42876134780922</v>
+        <v>11.04455256288559</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.67188176176391</v>
+        <v>11.45449350860822</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.86853295470718</v>
+        <v>14.07438121650512</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10.20031449886103</v>
+        <v>10.23009713417253</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9.756402575152993</v>
+        <v>10.14183330416447</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.05335234448708</v>
+        <v>17.90642921586251</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.538969843610729</v>
+        <v>6.576246362087297</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.06520236784009</v>
+        <v>7.145860479779255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.962543341041506</v>
+        <v>7.071302499856662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.32672673990039</v>
+        <v>16.17805843446791</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.274899860426292</v>
+        <v>4.272895797233407</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.734051358337362</v>
+        <v>4.812864726081062</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>5.779578638233807</v>
+        <v>5.644426889698491</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>12.27042496637561</v>
+        <v>12.01976637013165</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>6.239658417922429</v>
+        <v>6.20500490809229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.508339668245346</v>
+        <v>6.546487657504161</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.914531984670481</v>
+        <v>6.856853848773259</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>14.93347272325779</v>
+        <v>14.97467929443617</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.66041761833312</v>
+        <v>12.33702175540762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.45456133032876</v>
+        <v>12.51097308003866</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.74219210795023</v>
+        <v>11.91554667844174</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23.0861864750045</v>
+        <v>22.9946139268686</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.563874206202015</v>
+        <v>7.698807657131655</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.135661947663088</v>
+        <v>8.240164764610869</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.826633126743554</v>
+        <v>9.751781476752059</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.51411078650628</v>
+        <v>18.54910963788083</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>10.17075424508489</v>
+        <v>10.26710908536067</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9.946348702082348</v>
+        <v>9.963496251969458</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9.838882776319254</v>
+        <v>9.968239265969119</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>19.5560667269195</v>
+        <v>19.63934593875994</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.230159607759115</v>
+        <v>6.283363584713578</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.40867415151136</v>
+        <v>5.434908380164178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.555660941986546</v>
+        <v>5.541617864476163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12.98637051626711</v>
+        <v>13.09683589622058</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.46838363522272</v>
+        <v>9.286598722231517</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.1643854371523</v>
+        <v>6.109899972567616</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.255548846639401</v>
+        <v>6.858577880426042</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>15.47201893127045</v>
+        <v>15.27252066251323</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.730261635073783</v>
+        <v>8.769749291297829</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.714431992737149</v>
+        <v>6.637057966370531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.013292720739958</v>
+        <v>6.960330261947877</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>15.52961553205255</v>
+        <v>15.30285163089654</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.31014812465181</v>
+        <v>12.44038049897506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.4740358108654</v>
+        <v>15.49545546621568</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.97735767855905</v>
+        <v>11.8670226539415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.73053640177356</v>
+        <v>22.52110387025721</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.64382720086811</v>
+        <v>16.6886028329148</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.23633898907684</v>
+        <v>12.81106991791483</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.42137860636375</v>
+        <v>13.81087603212519</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>23.29823034451571</v>
+        <v>22.78913038527403</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.41891828175103</v>
+        <v>13.5447170153891</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12.66062374786224</v>
+        <v>12.15230180264636</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11.86858950615013</v>
+        <v>11.99628890359939</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>20.95337711305157</v>
+        <v>21.29538467275133</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>10.17396810526167</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>17.31011094843652</v>
+        <v>17.31011094843651</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.811667327935245</v>
+        <v>8.897682498968292</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.773153549678091</v>
+        <v>7.742572527849237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.682846301879605</v>
+        <v>8.793528421107371</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.25849371821509</v>
+        <v>16.35394620785198</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>7.420301953738024</v>
+        <v>7.400011574387769</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.148887551375473</v>
+        <v>7.298179072733382</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>8.915825187746721</v>
+        <v>9.002100556675622</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>14.83923437921461</v>
+        <v>14.72337337656866</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>8.589023508338821</v>
+        <v>8.628970770332764</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7.791034728117315</v>
+        <v>7.805324830228534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9.153800320959906</v>
+        <v>9.085452180006317</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>16.03181258744784</v>
+        <v>16.09199257179494</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.70378529251804</v>
+        <v>11.57595640826098</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.51788215341345</v>
+        <v>10.36562324500042</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.55308555737196</v>
+        <v>11.77505790133356</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19.91208517370598</v>
+        <v>19.93817962106214</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>10.05444615010455</v>
+        <v>9.958067363933349</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>9.868716319399496</v>
+        <v>10.18312371736439</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>12.16663196134695</v>
+        <v>12.30577615640312</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>18.29930519078141</v>
+        <v>18.28950803762007</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>10.6422916160652</v>
+        <v>10.59536425858114</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9.754396571892306</v>
+        <v>9.690600953216078</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11.37796258005676</v>
+        <v>11.21053063844637</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>18.59641642221879</v>
+        <v>18.50790549467703</v>
       </c>
     </row>
     <row r="22">
